--- a/Document/eCo.xlsx
+++ b/Document/eCo.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="7995" activeTab="2"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Products!$B$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1302,7 +1302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1877,12 +1877,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="50.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>1.3</v>
       </c>
@@ -2093,12 +2093,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2828,23 +2828,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="56.5" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="73.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="73.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="21" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="15.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4922,8 +4922,8 @@
       <c r="C72" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="40">
-        <v>11</v>
+      <c r="D72" s="20">
+        <v>50</v>
       </c>
       <c r="E72" s="39" t="s">
         <v>274</v>
@@ -4951,8 +4951,8 @@
       <c r="C73" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="D73" s="40">
-        <v>11</v>
+      <c r="D73" s="20">
+        <v>50</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>276</v>
@@ -5126,7 +5126,7 @@
         <v>295</v>
       </c>
       <c r="D79" s="18">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>296</v>
@@ -5212,8 +5212,8 @@
       <c r="C82" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D82" s="18">
-        <v>11</v>
+      <c r="D82" s="20">
+        <v>50</v>
       </c>
       <c r="E82" s="39" t="s">
         <v>305</v>
@@ -5811,7 +5811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="66.125" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="3:4" ht="75" x14ac:dyDescent="0.25">
